--- a/biology/Médecine/Héritage_mendélien_chez_l'humain/Héritage_mendélien_chez_l'humain.xlsx
+++ b/biology/Médecine/Héritage_mendélien_chez_l'humain/Héritage_mendélien_chez_l'humain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9ritage_mend%C3%A9lien_chez_l%27humain</t>
+          <t>Héritage_mendélien_chez_l'humain</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le projet Héritage mendélien chez l'humain (en anglais : Mendelian Inheritance in Man) est une base de données originellement compilée par Victor A. McKusick et qui dresse un catalogue de toutes les maladies connues qui relèvent de l'un ou l'autre composant génétique et — si possible — les relie aux gènes adéquats au sein du génome humain. Cette base de données est disponible sous forme d'un livre appelé Mendelian Inheritance in Man (MIM), qui en est à sa 13e édition.
-La version en ligne est appelée Online Mendelian Inheritance in Man, OMIM, et peut être consultée à partir de la base de données Entrez[1] de la National Library of Medicine[2].
+La version en ligne est appelée Online Mendelian Inheritance in Man, OMIM, et peut être consultée à partir de la base de données Entrez de la National Library of Medicine.
 OMIM et Online Mendelian Inheritance in Man sont des marques déposées de l'université Johns-Hopkins.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9ritage_mend%C3%A9lien_chez_l%27humain</t>
+          <t>Héritage_mendélien_chez_l'humain</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Processus de récolte des données</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’information contenue dans cette base de données est collectée et mise en forme par une équipe d'auteurs et éditeurs scientifiques sous l’autorité de Victor A. McKusick de l'Université Johns-Hopkins. Les données pertinentes sont identifiées, analysées et implantées dans la base de données.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%A9ritage_mend%C3%A9lien_chez_l%27humain</t>
+          <t>Héritage_mendélien_chez_l'humain</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Code MIM</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaque maladie et chaque gène se voit attribuer un nombre à six chiffres duquel le premier chiffre indique le mode de transmission. Ce code utilisé dans la description des maladies génétiques de Wikipédia permet d'identifier de façon unique ces maladies dans la multitude des synonymes..
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%A9ritage_mend%C3%A9lien_chez_l%27humain</t>
+          <t>Héritage_mendélien_chez_l'humain</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Symboles précédents le code</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Astérisque (*)
 Ce symbole indique un gène de séquence connue.
